--- a/materiais/Novo_Material_2025/Novo_Material_2025/Materiais_Power_BI_Analytics/1_MODULO - POWER_BI - Starter/1_RH/SALARIOS.xlsx
+++ b/materiais/Novo_Material_2025/Novo_Material_2025/Materiais_Power_BI_Analytics/1_MODULO - POWER_BI - Starter/1_RH/SALARIOS.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C5A331-FC61-47AB-AE79-486AEA391A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2430" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2430" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="enunciado" sheetId="8" r:id="rId1"/>
     <sheet name="RH" sheetId="6" r:id="rId2"/>
     <sheet name="Planilha1" sheetId="9" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -240,7 +239,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,7 +637,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -667,7 +665,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -698,7 +695,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -730,7 +726,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -761,7 +756,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -793,7 +787,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -824,7 +817,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -856,7 +848,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -888,7 +879,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -919,7 +909,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -950,7 +939,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -993,7 +981,6 @@
         <sz val="11"/>
         <color theme="0"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1006,7 +993,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Estilo de Tabela 1" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="Estilo de Tabela 1" pivot="0" count="0" xr9:uid="{8AE8A8A1-C79E-48BD-B74A-762B252891F0}"/>
+    <tableStyle name="Estilo de Tabela 1" pivot="0" count="0"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1039,7 +1026,7 @@
         <xdr:cNvPr id="2" name="Agrupar 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D5D221F-95E4-4DAC-9370-81FB9EE86BE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9D5D221F-95E4-4DAC-9370-81FB9EE86BE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1058,7 +1045,7 @@
           <xdr:cNvPr id="3" name="Imagem 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2957D2FF-57AD-47AA-8D0B-B5A5589DD35D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2957D2FF-57AD-47AA-8D0B-B5A5589DD35D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1092,7 +1079,7 @@
           <xdr:cNvPr id="4" name="Imagem 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA2FD336-C77A-4DBC-9422-40321EA48B96}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA2FD336-C77A-4DBC-9422-40321EA48B96}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1142,7 +1129,7 @@
         <xdr:cNvPr id="5" name="Imagem 4" descr="Arquitetura monumento computador ícones edifício, pilares arquitetônicos gregos decorado fundo, Serviços de design de interiores, PostScript encapsulado, estrutura png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF65D075-7BC8-4466-8049-6B0E08F6187A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF65D075-7BC8-4466-8049-6B0E08F6187A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1224,7 +1211,7 @@
         <xdr:cNvPr id="6" name="Imagem 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE6046B-F2F1-4BA5-8734-B122EF158EEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7DE6046B-F2F1-4BA5-8734-B122EF158EEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1260,20 +1247,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7FCA333-B551-437B-A412-71883B200CE9}" name="tb_rh" displayName="tb_rh" ref="A1:K22" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:K22" xr:uid="{224D9726-EF54-4715-ADA0-DD92A3295CD3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tb_rh" displayName="tb_rh" ref="A1:K22" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A1:K22"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{D6EB004E-C6CB-41CE-B27C-468AD535DD4B}" name="ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{94896561-5F5F-4037-9471-6CACCA6CC337}" name="NOME" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{95571BB9-FBEA-4F11-943B-F4D5233CCC45}" name="IDADE" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{A97EA4B7-1B20-4659-B519-98D197909E9E}" name="DATA ADIMISSAO" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{88808F6F-7C35-4DC6-B78F-C2A5B6FC55E3}" name="DEPARTAMENTO" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{0AD60221-8B5D-4BFF-A9CA-5F4C38D0845E}" name="SALARIO" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{A5B0E9FF-C96C-4C5C-8758-356ACE539C3B}" name="QTDE FALTA" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{042391E3-EAA9-48BE-B7A4-5F0526530BE2}" name="FILIAL" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{3AD584BA-6B88-4DA5-A4EA-3A119502BD3F}" name="DEMISSOES" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{05A61ACC-60A3-4A89-BFA0-1F4C6E20FAB7}" name="SEXO" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{DA567FB4-3A3E-4908-BB65-669F3593ABC7}" name="CONTRATACÕES FEITAS" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" dataDxfId="10"/>
+    <tableColumn id="2" name="NOME" dataDxfId="9"/>
+    <tableColumn id="3" name="IDADE" dataDxfId="8"/>
+    <tableColumn id="4" name="DATA ADIMISSAO" dataDxfId="7"/>
+    <tableColumn id="5" name="DEPARTAMENTO" dataDxfId="6"/>
+    <tableColumn id="6" name="SALARIO" dataDxfId="5"/>
+    <tableColumn id="7" name="QTDE FALTA" dataDxfId="4"/>
+    <tableColumn id="8" name="FILIAL" dataDxfId="3"/>
+    <tableColumn id="9" name="DEMISSOES" dataDxfId="2"/>
+    <tableColumn id="10" name="SEXO" dataDxfId="1"/>
+    <tableColumn id="11" name="CONTRATACÕES FEITAS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1282,7 +1269,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1320,7 +1307,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1355,23 +1342,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1407,26 +1377,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1599,7 +1552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D00B2F-5965-4120-9FC3-5F7911E1C274}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -1610,14 +1563,14 @@
       <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
-    <col min="12" max="12" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="8" max="8" width="5.54296875" customWidth="1"/>
+    <col min="12" max="12" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="27" t="s">
         <v>27</v>
       </c>
@@ -1633,7 +1586,7 @@
       <c r="K5" s="45"/>
       <c r="L5" s="45"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" s="30"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -1641,7 +1594,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="30"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -1655,7 +1608,7 @@
       <c r="K7" s="34"/>
       <c r="L7" s="35"/>
     </row>
-    <row r="8" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="36" t="s">
         <v>25</v>
       </c>
@@ -1672,7 +1625,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="39"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
@@ -1689,7 +1642,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="39"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
@@ -1704,7 +1657,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="39"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
@@ -1721,7 +1674,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="39"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
@@ -1736,7 +1689,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="39"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
@@ -1753,7 +1706,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="39"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
@@ -1768,7 +1721,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="39"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
@@ -1785,7 +1738,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B16" s="39"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
@@ -1796,7 +1749,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="42"/>
       <c r="C17" s="43"/>
       <c r="D17" s="43"/>
@@ -1804,7 +1757,7 @@
       <c r="F17" s="43"/>
       <c r="G17" s="44"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1829,33 +1782,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B7D27B-C464-4C32-A24F-7A844DF26DF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.453125" style="1" customWidth="1"/>
     <col min="10" max="10" width="18" style="1"/>
-    <col min="11" max="11" width="27.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.7265625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="18" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1890,7 +1843,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -1901,7 +1854,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="17">
-        <v>43501</v>
+        <v>43136</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>32</v>
@@ -1925,7 +1878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="23">
         <v>2</v>
       </c>
@@ -1936,7 +1889,7 @@
         <v>50</v>
       </c>
       <c r="D3" s="9">
-        <v>43502</v>
+        <v>43137</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>33</v>
@@ -1960,7 +1913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="23">
         <v>3</v>
       </c>
@@ -1995,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="23">
         <v>4</v>
       </c>
@@ -2030,7 +1983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="23">
         <v>5</v>
       </c>
@@ -2065,7 +2018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>13</v>
       </c>
@@ -2100,7 +2053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="23">
         <v>6</v>
       </c>
@@ -2135,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="23">
         <v>7</v>
       </c>
@@ -2170,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="23">
         <v>8</v>
       </c>
@@ -2205,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="23">
         <v>9</v>
       </c>
@@ -2240,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="23">
         <v>10</v>
       </c>
@@ -2275,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
         <v>15</v>
       </c>
@@ -2310,7 +2263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="23">
         <v>19</v>
       </c>
@@ -2345,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="23">
         <v>20</v>
       </c>
@@ -2380,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="23">
         <v>171</v>
       </c>
@@ -2415,7 +2368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="23">
         <v>523</v>
       </c>
@@ -2450,7 +2403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="23">
         <v>555</v>
       </c>
@@ -2485,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="23">
         <v>369</v>
       </c>
@@ -2520,7 +2473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
         <v>48</v>
       </c>
@@ -2555,7 +2508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="23" t="s">
         <v>58</v>
       </c>
@@ -2590,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
         <v>59</v>
       </c>
@@ -2635,14 +2588,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D0DA37-8813-4A20-8BBE-A655BA99D059}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
